--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link2_request400.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link2_request400.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.572</v>
+        <v>19.572</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>55.0488</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="94">
@@ -2191,7 +2191,7 @@
         <v>2.556</v>
       </c>
       <c r="C160" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="161">
@@ -2202,7 +2202,7 @@
         <v>2.54</v>
       </c>
       <c r="C161" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="162">
@@ -2213,7 +2213,7 @@
         <v>2.152</v>
       </c>
       <c r="C162" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="163">
@@ -2224,7 +2224,7 @@
         <v>15.844</v>
       </c>
       <c r="C163" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="164">
@@ -2664,7 +2664,7 @@
         <v>9.948</v>
       </c>
       <c r="C203" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="204">
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C204" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="205">
@@ -3346,7 +3346,7 @@
         <v>77.908</v>
       </c>
       <c r="C265" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="266">
@@ -4215,7 +4215,7 @@
         <v>77.908</v>
       </c>
       <c r="C344" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="345">
@@ -5084,7 +5084,7 @@
         <v>77.908</v>
       </c>
       <c r="C423" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="424">
@@ -5953,7 +5953,7 @@
         <v>77.908</v>
       </c>
       <c r="C502" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="503">
@@ -6822,7 +6822,7 @@
         <v>77.908</v>
       </c>
       <c r="C581" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="582">
@@ -7691,7 +7691,7 @@
         <v>77.908</v>
       </c>
       <c r="C660" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="661">
@@ -8560,7 +8560,7 @@
         <v>77.908</v>
       </c>
       <c r="C739" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="740">
@@ -9429,7 +9429,7 @@
         <v>77.908</v>
       </c>
       <c r="C818" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="819">
@@ -10298,7 +10298,7 @@
         <v>77.908</v>
       </c>
       <c r="C897" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="898">
@@ -10526,7 +10526,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>417.3448</v>
+        <v>401.3448</v>
       </c>
       <c r="C918" t="n">
         <v>11875001</v>
